--- a/config_multi.xls/game_room_coin_num.xlsx
+++ b/config_multi.xls/game_room_coin_num.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\blackjack\gamedata\config_multi.xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7902E5-EBC1-4AC6-8E0D-4D2E3DDE4070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28365" windowHeight="12975" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="game_room_coin_num" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -32,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -109,14 +115,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -130,363 +130,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -503,251 +166,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -762,59 +183,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -888,12 +264,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -902,14 +281,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>236745</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1303545</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -950,14 +335,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>236745</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1303545</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -998,14 +389,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>236745</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1303545</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1046,14 +443,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>236745</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1303545</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1094,14 +497,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>236745</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1303545</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1142,14 +551,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>236745</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1303545</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1190,14 +605,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>236745</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1303545</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1238,14 +659,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>236745</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1303545</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1286,14 +713,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>94905</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>847380</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="10" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1337,14 +770,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>94905</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>847380</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="11" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1388,14 +827,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>94905</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>847380</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="12" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1439,14 +884,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>94905</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>847380</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="13" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1490,14 +941,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>94905</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>847380</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="14" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1541,14 +998,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>94905</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>847380</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="15" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1592,14 +1055,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>94905</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>847380</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="16" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1890,30 +1359,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H323"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="I327" sqref="I327"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="D360" sqref="D360"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="10.4444444444444" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.1111111111111" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.6666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5555555555556" style="2" customWidth="1"/>
-    <col min="6" max="1013" width="10.4444444444444" customWidth="1"/>
-    <col min="1014" max="1023" width="8.66666666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" style="2" customWidth="1"/>
+    <col min="6" max="1013" width="10.44140625" customWidth="1"/>
+    <col min="1014" max="1023" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" spans="1:5">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1930,7 +1399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1947,7 +1416,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2000,7 +1469,7 @@
       </c>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2017,7 +1486,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2070,7 +1539,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2087,7 +1556,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2104,7 +1573,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2121,7 +1590,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:8">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2138,7 +1607,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:8">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2155,7 +1624,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:8">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2172,7 +1641,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:8">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2733,7 +2202,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:7">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2750,7 +2219,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:7">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2767,7 +2236,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:7">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2784,7 +2253,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:7">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2801,7 +2270,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:7">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2818,7 +2287,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:7">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2835,7 +2304,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:7">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2852,7 +2321,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:7">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2869,7 +2338,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:7">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2886,7 +2355,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:7">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2903,7 +2372,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:7">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -2936,7 +2405,7 @@
       <c r="E60" s="2">
         <v>1000</v>
       </c>
-      <c r="G60" s="6"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="2">
@@ -3010,7 +2479,7 @@
       </c>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:8">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3027,7 +2496,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:8">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3080,7 +2549,7 @@
       </c>
       <c r="H68" s="4"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:8">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3097,7 +2566,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:8">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3114,7 +2583,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:8">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3131,7 +2600,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:8">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3148,7 +2617,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:8">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3165,7 +2634,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:8">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3182,7 +2651,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:8">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3199,7 +2668,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:8">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3216,7 +2685,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:8">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3233,7 +2702,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:8">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3250,7 +2719,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:8">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -3267,7 +2736,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:8">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -3556,7 +3025,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:7">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -3573,7 +3042,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:7">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -3590,7 +3059,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:7">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -3607,7 +3076,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:7">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -3624,7 +3093,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:7">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -3641,7 +3110,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:7">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -3658,7 +3127,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:7">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -3675,7 +3144,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:7">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -3692,7 +3161,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:7">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -3709,7 +3178,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:7">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -3726,7 +3195,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:7">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -3743,7 +3212,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:7">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -3760,7 +3229,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:7">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -3777,7 +3246,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:7">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -3902,7 +3371,7 @@
       </c>
       <c r="F116" s="4"/>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:6">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -3919,7 +3388,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:6">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -3936,7 +3405,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:6">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -3953,7 +3422,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:6">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -3970,7 +3439,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:6">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -3987,7 +3456,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:6">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -4004,7 +3473,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:6">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -4021,7 +3490,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:6">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -4038,7 +3507,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:6">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -4055,7 +3524,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:6">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -4072,7 +3541,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:6">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -4089,7 +3558,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:6">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -4106,7 +3575,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:6">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -4123,7 +3592,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:6">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -4140,7 +3609,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:6">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -4157,7 +3626,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:6">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -4174,7 +3643,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:6">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -4191,7 +3660,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:6">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -4208,7 +3677,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:6">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -4225,7 +3694,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:6">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -4242,7 +3711,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:6">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -4259,7 +3728,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:6">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -4276,7 +3745,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:6">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -4293,7 +3762,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:6">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -4310,7 +3779,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:6">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -4327,7 +3796,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:6">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -4344,7 +3813,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:6">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -4505,7 +3974,7 @@
       </c>
       <c r="F151" s="4"/>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:6">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -4522,7 +3991,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:6">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -4539,7 +4008,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:6">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -4556,7 +4025,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:6">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -4573,7 +4042,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:6">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -4590,7 +4059,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:6">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -4607,7 +4076,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:6">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -4624,7 +4093,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:6">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -4641,7 +4110,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:6">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -4966,7 +4435,7 @@
       </c>
       <c r="G178" s="4"/>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:7">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -4984,7 +4453,7 @@
       </c>
       <c r="F179" s="4"/>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:7">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -5002,7 +4471,7 @@
       </c>
       <c r="F180" s="4"/>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:7">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -5020,7 +4489,7 @@
       </c>
       <c r="F181" s="4"/>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:7">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -5038,7 +4507,7 @@
       </c>
       <c r="F182" s="4"/>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:7">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -5055,7 +4524,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:7">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -5072,7 +4541,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:7">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -5089,7 +4558,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:7">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -5106,7 +4575,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:7">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -5123,7 +4592,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:7">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -5140,7 +4609,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:7">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -5157,7 +4626,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:7">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -5174,7 +4643,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:7">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -5191,7 +4660,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:7">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -5752,7 +5221,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:7">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -5769,7 +5238,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:7">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -5786,7 +5255,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:7">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -5822,7 +5291,7 @@
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:7">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -5839,7 +5308,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:7">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -5856,7 +5325,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:7">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -5873,7 +5342,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:7">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -5890,7 +5359,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:7">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -5907,7 +5376,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:7">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -5924,7 +5393,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:7">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -5941,7 +5410,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:7">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -5958,7 +5427,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:7">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -5975,7 +5444,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:7">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -5992,7 +5461,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:7">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -6009,7 +5478,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:7">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -7352,95 +6821,775 @@
         <v>500</v>
       </c>
     </row>
-    <row r="319" customFormat="1" spans="1:5">
+    <row r="319" spans="1:5">
       <c r="A319" s="2">
         <v>318</v>
       </c>
       <c r="B319" s="2">
         <v>20101</v>
       </c>
-      <c r="C319" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D319" s="2">
-        <v>50000</v>
+      <c r="C319" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D319" s="6">
+        <v>10000000000</v>
       </c>
       <c r="E319" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="320" customFormat="1" spans="1:5">
+    <row r="320" spans="1:5">
       <c r="A320" s="2">
         <v>319</v>
       </c>
       <c r="B320" s="2">
         <v>20101</v>
       </c>
-      <c r="C320" s="2">
-        <v>30000</v>
-      </c>
-      <c r="D320" s="2">
-        <v>200000</v>
+      <c r="C320" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D320" s="6">
+        <v>10000000000</v>
       </c>
       <c r="E320" s="2">
         <v>3000</v>
       </c>
     </row>
-    <row r="321" customFormat="1" spans="1:5">
+    <row r="321" spans="1:5">
       <c r="A321" s="2">
         <v>320</v>
       </c>
       <c r="B321" s="2">
         <v>20101</v>
       </c>
-      <c r="C321" s="2">
-        <v>200000</v>
-      </c>
-      <c r="D321" s="2">
-        <v>1000000</v>
+      <c r="C321" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D321" s="6">
+        <v>10000000000</v>
       </c>
       <c r="E321" s="2">
         <v>3000</v>
       </c>
     </row>
-    <row r="322" customFormat="1" spans="1:5">
+    <row r="322" spans="1:5">
       <c r="A322" s="2">
         <v>321</v>
       </c>
       <c r="B322" s="2">
         <v>20101</v>
       </c>
-      <c r="C322" s="2">
-        <v>800000</v>
-      </c>
-      <c r="D322" s="2">
-        <v>10000000</v>
+      <c r="C322" s="6">
+        <v>200000</v>
+      </c>
+      <c r="D322" s="6">
+        <v>10000000000</v>
       </c>
       <c r="E322" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="323" customFormat="1" spans="1:5">
+    <row r="323" spans="1:5">
       <c r="A323" s="2">
         <v>322</v>
       </c>
       <c r="B323" s="2">
         <v>20101</v>
       </c>
-      <c r="C323" s="2">
+      <c r="C323" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="D323" s="6">
+        <v>10000000000</v>
+      </c>
+      <c r="E323" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="2">
+        <v>323</v>
+      </c>
+      <c r="B324" s="2">
+        <v>20201</v>
+      </c>
+      <c r="C324" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D324" s="6">
+        <v>5000</v>
+      </c>
+      <c r="E324" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="2">
+        <v>324</v>
+      </c>
+      <c r="B325" s="2">
+        <v>20201</v>
+      </c>
+      <c r="C325" s="6">
+        <v>5000</v>
+      </c>
+      <c r="D325" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E325" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="2">
+        <v>325</v>
+      </c>
+      <c r="B326" s="2">
+        <v>20201</v>
+      </c>
+      <c r="C326" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D326" s="6">
+        <v>15000</v>
+      </c>
+      <c r="E326" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="2">
+        <v>326</v>
+      </c>
+      <c r="B327" s="2">
+        <v>20201</v>
+      </c>
+      <c r="C327" s="6">
+        <v>15000</v>
+      </c>
+      <c r="D327" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E327" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="2">
+        <v>327</v>
+      </c>
+      <c r="B328" s="2">
+        <v>20202</v>
+      </c>
+      <c r="C328" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D328" s="6">
+        <v>50000</v>
+      </c>
+      <c r="E328" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="2">
+        <v>328</v>
+      </c>
+      <c r="B329" s="2">
+        <v>20202</v>
+      </c>
+      <c r="C329" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D329" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E329" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="2">
+        <v>329</v>
+      </c>
+      <c r="B330" s="2">
+        <v>20202</v>
+      </c>
+      <c r="C330" s="6">
+        <v>100000</v>
+      </c>
+      <c r="D330" s="6">
+        <v>150000</v>
+      </c>
+      <c r="E330" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="2">
+        <v>330</v>
+      </c>
+      <c r="B331" s="2">
+        <v>20202</v>
+      </c>
+      <c r="C331" s="6">
+        <v>150000</v>
+      </c>
+      <c r="D331" s="6">
+        <v>200000</v>
+      </c>
+      <c r="E331" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="2">
+        <v>331</v>
+      </c>
+      <c r="B332" s="2">
+        <v>20203</v>
+      </c>
+      <c r="C332" s="6">
+        <v>100000</v>
+      </c>
+      <c r="D332" s="6">
+        <v>500000</v>
+      </c>
+      <c r="E332" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="2">
+        <v>332</v>
+      </c>
+      <c r="B333" s="2">
+        <v>20203</v>
+      </c>
+      <c r="C333" s="6">
+        <v>500000</v>
+      </c>
+      <c r="D333" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="E333" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="2">
+        <v>333</v>
+      </c>
+      <c r="B334" s="2">
+        <v>20203</v>
+      </c>
+      <c r="C334" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="D334" s="6">
+        <v>1500000</v>
+      </c>
+      <c r="E334" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="2">
+        <v>334</v>
+      </c>
+      <c r="B335" s="2">
+        <v>20203</v>
+      </c>
+      <c r="C335" s="6">
+        <v>1500000</v>
+      </c>
+      <c r="D335" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="E335" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="2">
+        <v>335</v>
+      </c>
+      <c r="B336" s="2">
+        <v>20204</v>
+      </c>
+      <c r="C336" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="D336" s="6">
+        <v>5000000</v>
+      </c>
+      <c r="E336" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="2">
+        <v>336</v>
+      </c>
+      <c r="B337" s="2">
+        <v>20204</v>
+      </c>
+      <c r="C337" s="6">
+        <v>5000000</v>
+      </c>
+      <c r="D337" s="6">
         <v>10000000</v>
       </c>
-      <c r="D323" s="2">
+      <c r="E337" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="2">
+        <v>337</v>
+      </c>
+      <c r="B338" s="2">
+        <v>20204</v>
+      </c>
+      <c r="C338" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="D338" s="6">
+        <v>15000000</v>
+      </c>
+      <c r="E338" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="2">
+        <v>338</v>
+      </c>
+      <c r="B339" s="2">
+        <v>20204</v>
+      </c>
+      <c r="C339" s="6">
+        <v>15000000</v>
+      </c>
+      <c r="D339" s="6">
+        <v>20000000</v>
+      </c>
+      <c r="E339" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="2">
+        <v>339</v>
+      </c>
+      <c r="B340" s="2">
+        <v>20205</v>
+      </c>
+      <c r="C340" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="D340" s="6">
+        <v>50000000</v>
+      </c>
+      <c r="E340" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="2">
+        <v>340</v>
+      </c>
+      <c r="B341" s="2">
+        <v>20205</v>
+      </c>
+      <c r="C341" s="6">
+        <v>50000000</v>
+      </c>
+      <c r="D341" s="6">
         <v>100000000</v>
       </c>
-      <c r="E323" s="2">
-        <v>1000</v>
+      <c r="E341" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="2">
+        <v>341</v>
+      </c>
+      <c r="B342" s="2">
+        <v>20205</v>
+      </c>
+      <c r="C342" s="6">
+        <v>100000000</v>
+      </c>
+      <c r="D342" s="6">
+        <v>150000000</v>
+      </c>
+      <c r="E342" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="2">
+        <v>342</v>
+      </c>
+      <c r="B343" s="2">
+        <v>20205</v>
+      </c>
+      <c r="C343" s="6">
+        <v>150000000</v>
+      </c>
+      <c r="D343" s="6">
+        <v>500000000</v>
+      </c>
+      <c r="E343" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="2">
+        <v>343</v>
+      </c>
+      <c r="B344" s="2">
+        <v>20301</v>
+      </c>
+      <c r="C344" s="6">
+        <v>3000</v>
+      </c>
+      <c r="D344" s="6">
+        <v>6000</v>
+      </c>
+      <c r="E344" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="2">
+        <v>344</v>
+      </c>
+      <c r="B345" s="2">
+        <v>20301</v>
+      </c>
+      <c r="C345" s="6">
+        <v>5000</v>
+      </c>
+      <c r="D345" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E345" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="2">
+        <v>345</v>
+      </c>
+      <c r="B346" s="2">
+        <v>20301</v>
+      </c>
+      <c r="C346" s="6">
+        <v>10000</v>
+      </c>
+      <c r="D346" s="6">
+        <v>15000</v>
+      </c>
+      <c r="E346" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="2">
+        <v>346</v>
+      </c>
+      <c r="B347" s="2">
+        <v>20301</v>
+      </c>
+      <c r="C347" s="6">
+        <v>15000</v>
+      </c>
+      <c r="D347" s="6">
+        <v>20000</v>
+      </c>
+      <c r="E347" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="2">
+        <v>347</v>
+      </c>
+      <c r="B348" s="2">
+        <v>20302</v>
+      </c>
+      <c r="C348" s="6">
+        <v>30000</v>
+      </c>
+      <c r="D348" s="6">
+        <v>60000</v>
+      </c>
+      <c r="E348" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="2">
+        <v>348</v>
+      </c>
+      <c r="B349" s="2">
+        <v>20302</v>
+      </c>
+      <c r="C349" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D349" s="6">
+        <v>100000</v>
+      </c>
+      <c r="E349" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="2">
+        <v>349</v>
+      </c>
+      <c r="B350" s="2">
+        <v>20302</v>
+      </c>
+      <c r="C350" s="6">
+        <v>100000</v>
+      </c>
+      <c r="D350" s="6">
+        <v>150000</v>
+      </c>
+      <c r="E350" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="2">
+        <v>350</v>
+      </c>
+      <c r="B351" s="2">
+        <v>20302</v>
+      </c>
+      <c r="C351" s="6">
+        <v>150000</v>
+      </c>
+      <c r="D351" s="6">
+        <v>200000</v>
+      </c>
+      <c r="E351" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="2">
+        <v>351</v>
+      </c>
+      <c r="B352" s="2">
+        <v>20303</v>
+      </c>
+      <c r="C352" s="6">
+        <v>300000</v>
+      </c>
+      <c r="D352" s="6">
+        <v>600000</v>
+      </c>
+      <c r="E352" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="2">
+        <v>352</v>
+      </c>
+      <c r="B353" s="2">
+        <v>20303</v>
+      </c>
+      <c r="C353" s="6">
+        <v>500000</v>
+      </c>
+      <c r="D353" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="E353" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="2">
+        <v>353</v>
+      </c>
+      <c r="B354" s="2">
+        <v>20303</v>
+      </c>
+      <c r="C354" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="D354" s="6">
+        <v>1500000</v>
+      </c>
+      <c r="E354" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="2">
+        <v>354</v>
+      </c>
+      <c r="B355" s="2">
+        <v>20303</v>
+      </c>
+      <c r="C355" s="6">
+        <v>1500000</v>
+      </c>
+      <c r="D355" s="6">
+        <v>2000000</v>
+      </c>
+      <c r="E355" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="2">
+        <v>355</v>
+      </c>
+      <c r="B356" s="2">
+        <v>20304</v>
+      </c>
+      <c r="C356" s="6">
+        <v>3000000</v>
+      </c>
+      <c r="D356" s="6">
+        <v>6000000</v>
+      </c>
+      <c r="E356" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="2">
+        <v>356</v>
+      </c>
+      <c r="B357" s="2">
+        <v>20304</v>
+      </c>
+      <c r="C357" s="6">
+        <v>5000000</v>
+      </c>
+      <c r="D357" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="E357" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="2">
+        <v>357</v>
+      </c>
+      <c r="B358" s="2">
+        <v>20304</v>
+      </c>
+      <c r="C358" s="6">
+        <v>10000000</v>
+      </c>
+      <c r="D358" s="6">
+        <v>15000000</v>
+      </c>
+      <c r="E358" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="2">
+        <v>358</v>
+      </c>
+      <c r="B359" s="2">
+        <v>20305</v>
+      </c>
+      <c r="C359" s="6">
+        <v>15000000</v>
+      </c>
+      <c r="D359" s="6">
+        <v>20000000</v>
+      </c>
+      <c r="E359" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="2">
+        <v>359</v>
+      </c>
+      <c r="B360" s="2">
+        <v>20305</v>
+      </c>
+      <c r="C360" s="6">
+        <v>30000000</v>
+      </c>
+      <c r="D360" s="6">
+        <v>60000000</v>
+      </c>
+      <c r="E360" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="2">
+        <v>360</v>
+      </c>
+      <c r="B361" s="2">
+        <v>20305</v>
+      </c>
+      <c r="C361" s="6">
+        <v>50000000</v>
+      </c>
+      <c r="D361" s="6">
+        <v>100000000</v>
+      </c>
+      <c r="E361" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="2">
+        <v>361</v>
+      </c>
+      <c r="B362" s="2">
+        <v>20305</v>
+      </c>
+      <c r="C362" s="6">
+        <v>100000000</v>
+      </c>
+      <c r="D362" s="6">
+        <v>150000000</v>
+      </c>
+      <c r="E362" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="2">
+        <v>362</v>
+      </c>
+      <c r="B363" s="2">
+        <v>20305</v>
+      </c>
+      <c r="C363" s="6">
+        <v>150000000</v>
+      </c>
+      <c r="D363" s="6">
+        <v>500000000</v>
+      </c>
+      <c r="E363" s="2">
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.511111111111111" footer="0.511111111111111"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51111111111111096" footer="0.51111111111111096"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/config_multi.xls/game_room_coin_num.xlsx
+++ b/config_multi.xls/game_room_coin_num.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\blackjack\gamedata\config_multi.xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7902E5-EBC1-4AC6-8E0D-4D2E3DDE4070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203A5197-EF96-4B6E-9FAB-6A3B40B38F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1365,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H363"/>
+  <dimension ref="A1:H364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="D360" sqref="D360"/>
+    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
+      <selection activeCell="E363" sqref="E363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -7254,10 +7254,10 @@
         <v>20301</v>
       </c>
       <c r="C344" s="6">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="D344" s="6">
-        <v>6000</v>
+        <v>10000</v>
       </c>
       <c r="E344" s="2">
         <v>2500</v>
@@ -7271,10 +7271,10 @@
         <v>20301</v>
       </c>
       <c r="C345" s="6">
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="D345" s="6">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="E345" s="2">
         <v>3000</v>
@@ -7322,10 +7322,10 @@
         <v>20302</v>
       </c>
       <c r="C348" s="6">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="D348" s="6">
-        <v>60000</v>
+        <v>100000</v>
       </c>
       <c r="E348" s="2">
         <v>2500</v>
@@ -7339,10 +7339,10 @@
         <v>20302</v>
       </c>
       <c r="C349" s="6">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="D349" s="6">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="E349" s="2">
         <v>3000</v>
@@ -7390,10 +7390,10 @@
         <v>20303</v>
       </c>
       <c r="C352" s="6">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="D352" s="6">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="E352" s="2">
         <v>2500</v>
@@ -7407,10 +7407,10 @@
         <v>20303</v>
       </c>
       <c r="C353" s="6">
-        <v>500000</v>
+        <v>800000</v>
       </c>
       <c r="D353" s="6">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="E353" s="2">
         <v>3000</v>
@@ -7458,10 +7458,10 @@
         <v>20304</v>
       </c>
       <c r="C356" s="6">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="D356" s="6">
-        <v>6000000</v>
+        <v>10000000</v>
       </c>
       <c r="E356" s="2">
         <v>2500</v>
@@ -7475,10 +7475,10 @@
         <v>20304</v>
       </c>
       <c r="C357" s="6">
-        <v>5000000</v>
+        <v>8000000</v>
       </c>
       <c r="D357" s="6">
-        <v>10000000</v>
+        <v>12000000</v>
       </c>
       <c r="E357" s="2">
         <v>3000</v>
@@ -7506,7 +7506,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="2">
-        <v>20305</v>
+        <v>20304</v>
       </c>
       <c r="C359" s="6">
         <v>15000000</v>
@@ -7526,10 +7526,10 @@
         <v>20305</v>
       </c>
       <c r="C360" s="6">
-        <v>30000000</v>
+        <v>60000000</v>
       </c>
       <c r="D360" s="6">
-        <v>60000000</v>
+        <v>10000000</v>
       </c>
       <c r="E360" s="2">
         <v>2500</v>
@@ -7543,10 +7543,10 @@
         <v>20305</v>
       </c>
       <c r="C361" s="6">
-        <v>50000000</v>
+        <v>80000000</v>
       </c>
       <c r="D361" s="6">
-        <v>100000000</v>
+        <v>12000000</v>
       </c>
       <c r="E361" s="2">
         <v>3000</v>
@@ -7560,10 +7560,10 @@
         <v>20305</v>
       </c>
       <c r="C362" s="6">
+        <v>50000000</v>
+      </c>
+      <c r="D362" s="6">
         <v>100000000</v>
-      </c>
-      <c r="D362" s="6">
-        <v>150000000</v>
       </c>
       <c r="E362" s="2">
         <v>3000</v>
@@ -7585,6 +7585,10 @@
       <c r="E363" s="2">
         <v>1500</v>
       </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="C364" s="6"/>
+      <c r="D364" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/config_multi.xls/game_room_coin_num.xlsx
+++ b/config_multi.xls/game_room_coin_num.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\blackjack\gamedata\config_multi.xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203A5197-EF96-4B6E-9FAB-6A3B40B38F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5CB2DD-DE3E-4753-A997-5ED6D7FCCAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1365,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H364"/>
+  <dimension ref="A1:H383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="E363" sqref="E363"/>
+    <sheetView tabSelected="1" topLeftCell="A359" workbookViewId="0">
+      <selection activeCell="G376" sqref="G376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -7587,8 +7587,344 @@
       </c>
     </row>
     <row r="364" spans="1:5">
-      <c r="C364" s="6"/>
-      <c r="D364" s="6"/>
+      <c r="A364" s="2">
+        <v>363</v>
+      </c>
+      <c r="B364" s="2">
+        <v>18501</v>
+      </c>
+      <c r="C364" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D364" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E364" s="2">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="2">
+        <v>364</v>
+      </c>
+      <c r="B365" s="2">
+        <v>18501</v>
+      </c>
+      <c r="C365" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D365" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E365" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="2">
+        <v>365</v>
+      </c>
+      <c r="B366" s="2">
+        <v>18501</v>
+      </c>
+      <c r="C366" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D366" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E366" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="2">
+        <v>366</v>
+      </c>
+      <c r="B367" s="2">
+        <v>18501</v>
+      </c>
+      <c r="C367" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D367" s="2">
+        <v>500000</v>
+      </c>
+      <c r="E367" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="2">
+        <v>367</v>
+      </c>
+      <c r="B368" s="2">
+        <v>18502</v>
+      </c>
+      <c r="C368" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D368" s="2">
+        <v>50000</v>
+      </c>
+      <c r="E368" s="2">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="2">
+        <v>368</v>
+      </c>
+      <c r="B369" s="2">
+        <v>18502</v>
+      </c>
+      <c r="C369" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D369" s="2">
+        <v>100000</v>
+      </c>
+      <c r="E369" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="2">
+        <v>369</v>
+      </c>
+      <c r="B370" s="2">
+        <v>18502</v>
+      </c>
+      <c r="C370" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D370" s="2">
+        <v>200000</v>
+      </c>
+      <c r="E370" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="2">
+        <v>370</v>
+      </c>
+      <c r="B371" s="2">
+        <v>18502</v>
+      </c>
+      <c r="C371" s="2">
+        <v>200000</v>
+      </c>
+      <c r="D371" s="2">
+        <v>500000</v>
+      </c>
+      <c r="E371" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="2">
+        <v>371</v>
+      </c>
+      <c r="B372" s="2">
+        <v>18503</v>
+      </c>
+      <c r="C372" s="2">
+        <v>100000</v>
+      </c>
+      <c r="D372" s="2">
+        <v>500000</v>
+      </c>
+      <c r="E372" s="2">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="2">
+        <v>372</v>
+      </c>
+      <c r="B373" s="2">
+        <v>18503</v>
+      </c>
+      <c r="C373" s="2">
+        <v>500000</v>
+      </c>
+      <c r="D373" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="E373" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="2">
+        <v>373</v>
+      </c>
+      <c r="B374" s="2">
+        <v>18503</v>
+      </c>
+      <c r="C374" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="D374" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E374" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="2">
+        <v>374</v>
+      </c>
+      <c r="B375" s="2">
+        <v>18503</v>
+      </c>
+      <c r="C375" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D375" s="2">
+        <v>50000000</v>
+      </c>
+      <c r="E375" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="2">
+        <v>375</v>
+      </c>
+      <c r="B376" s="2">
+        <v>18504</v>
+      </c>
+      <c r="C376" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="D376" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="E376" s="2">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="2">
+        <v>376</v>
+      </c>
+      <c r="B377" s="2">
+        <v>18504</v>
+      </c>
+      <c r="C377" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="D377" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="E377" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="2">
+        <v>377</v>
+      </c>
+      <c r="B378" s="2">
+        <v>18504</v>
+      </c>
+      <c r="C378" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="D378" s="2">
+        <v>50000000</v>
+      </c>
+      <c r="E378" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="2">
+        <v>378</v>
+      </c>
+      <c r="B379" s="2">
+        <v>18504</v>
+      </c>
+      <c r="C379" s="2">
+        <v>50000000</v>
+      </c>
+      <c r="D379" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="E379" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="2">
+        <v>379</v>
+      </c>
+      <c r="B380" s="2">
+        <v>18505</v>
+      </c>
+      <c r="C380" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="D380" s="2">
+        <v>25000000</v>
+      </c>
+      <c r="E380" s="2">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="2">
+        <v>380</v>
+      </c>
+      <c r="B381" s="2">
+        <v>18505</v>
+      </c>
+      <c r="C381" s="2">
+        <v>25000000</v>
+      </c>
+      <c r="D381" s="2">
+        <v>50000000</v>
+      </c>
+      <c r="E381" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="2">
+        <v>381</v>
+      </c>
+      <c r="B382" s="2">
+        <v>18505</v>
+      </c>
+      <c r="C382" s="2">
+        <v>50000000</v>
+      </c>
+      <c r="D382" s="2">
+        <v>250000000</v>
+      </c>
+      <c r="E382" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="2">
+        <v>382</v>
+      </c>
+      <c r="B383" s="2">
+        <v>18505</v>
+      </c>
+      <c r="C383" s="2">
+        <v>250000000</v>
+      </c>
+      <c r="D383" s="2">
+        <v>500000000</v>
+      </c>
+      <c r="E383" s="2">
+        <v>500</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
